--- a/PollenAnalyses/Pollen_Corrected.xlsx
+++ b/PollenAnalyses/Pollen_Corrected.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School\Chapter 2\larrea.facilitation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School\Chapter 2\larrea.facilitation\PollenAnalyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="34">
   <si>
     <t>Slide</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>O13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>O14</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2259"/>
+  <dimension ref="A1:R2439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2150" workbookViewId="0">
-      <selection activeCell="E2170" sqref="E2170"/>
+    <sheetView tabSelected="1" topLeftCell="A2421" workbookViewId="0">
+      <selection activeCell="J2439" sqref="J2439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41265,6 +41271,12 @@
       <c r="C2170">
         <v>1</v>
       </c>
+      <c r="E2170">
+        <v>13</v>
+      </c>
+      <c r="F2170">
+        <v>7</v>
+      </c>
     </row>
     <row r="2171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2171" t="s">
@@ -41276,6 +41288,12 @@
       <c r="C2171">
         <v>2</v>
       </c>
+      <c r="E2171">
+        <v>1</v>
+      </c>
+      <c r="F2171">
+        <v>1</v>
+      </c>
     </row>
     <row r="2172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2172" t="s">
@@ -41287,6 +41305,9 @@
       <c r="C2172">
         <v>3</v>
       </c>
+      <c r="E2172">
+        <v>1</v>
+      </c>
     </row>
     <row r="2173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2173" t="s">
@@ -41298,6 +41319,15 @@
       <c r="C2173">
         <v>4</v>
       </c>
+      <c r="D2173" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2173">
+        <v>1</v>
+      </c>
+      <c r="F2173">
+        <v>2</v>
+      </c>
     </row>
     <row r="2174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2174" t="s">
@@ -41309,6 +41339,9 @@
       <c r="C2174">
         <v>5</v>
       </c>
+      <c r="E2174">
+        <v>1</v>
+      </c>
     </row>
     <row r="2175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2175" t="s">
@@ -41320,6 +41353,12 @@
       <c r="C2175">
         <v>6</v>
       </c>
+      <c r="D2175" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2175">
+        <v>1</v>
+      </c>
     </row>
     <row r="2176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2176" t="s">
@@ -41331,8 +41370,17 @@
       <c r="C2176">
         <v>7</v>
       </c>
-    </row>
-    <row r="2177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2176">
+        <v>3</v>
+      </c>
+      <c r="F2176">
+        <v>1</v>
+      </c>
+      <c r="G2176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2177" t="s">
         <v>31</v>
       </c>
@@ -41342,8 +41390,14 @@
       <c r="C2177">
         <v>8</v>
       </c>
-    </row>
-    <row r="2178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2177" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2178" t="s">
         <v>31</v>
       </c>
@@ -41353,8 +41407,11 @@
       <c r="C2178">
         <v>9</v>
       </c>
-    </row>
-    <row r="2179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2179" t="s">
         <v>31</v>
       </c>
@@ -41364,8 +41421,17 @@
       <c r="C2179">
         <v>10</v>
       </c>
-    </row>
-    <row r="2180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2179">
+        <v>1</v>
+      </c>
+      <c r="F2179">
+        <v>1</v>
+      </c>
+      <c r="G2179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2180" t="s">
         <v>31</v>
       </c>
@@ -41375,8 +41441,26 @@
       <c r="C2180">
         <v>1</v>
       </c>
-    </row>
-    <row r="2181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2180" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2180">
+        <v>2</v>
+      </c>
+      <c r="F2180">
+        <v>2</v>
+      </c>
+      <c r="G2180">
+        <v>1</v>
+      </c>
+      <c r="H2180">
+        <v>4</v>
+      </c>
+      <c r="I2180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2181" t="s">
         <v>31</v>
       </c>
@@ -41386,8 +41470,14 @@
       <c r="C2181">
         <v>2</v>
       </c>
-    </row>
-    <row r="2182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2181">
+        <v>3</v>
+      </c>
+      <c r="F2181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2182" t="s">
         <v>31</v>
       </c>
@@ -41397,8 +41487,14 @@
       <c r="C2182">
         <v>3</v>
       </c>
-    </row>
-    <row r="2183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2182">
+        <v>1</v>
+      </c>
+      <c r="F2182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2183" t="s">
         <v>31</v>
       </c>
@@ -41408,8 +41504,23 @@
       <c r="C2183">
         <v>4</v>
       </c>
-    </row>
-    <row r="2184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2183" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2183">
+        <v>1</v>
+      </c>
+      <c r="F2183">
+        <v>1</v>
+      </c>
+      <c r="G2183">
+        <v>1</v>
+      </c>
+      <c r="H2183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2184" t="s">
         <v>31</v>
       </c>
@@ -41419,8 +41530,20 @@
       <c r="C2184">
         <v>5</v>
       </c>
-    </row>
-    <row r="2185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2184" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2184">
+        <v>2</v>
+      </c>
+      <c r="F2184">
+        <v>1</v>
+      </c>
+      <c r="G2184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2185" t="s">
         <v>31</v>
       </c>
@@ -41430,8 +41553,14 @@
       <c r="C2185">
         <v>6</v>
       </c>
-    </row>
-    <row r="2186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2185">
+        <v>1</v>
+      </c>
+      <c r="F2185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2186" t="s">
         <v>31</v>
       </c>
@@ -41441,8 +41570,11 @@
       <c r="C2186">
         <v>7</v>
       </c>
-    </row>
-    <row r="2187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2187" t="s">
         <v>31</v>
       </c>
@@ -41452,8 +41584,11 @@
       <c r="C2187">
         <v>8</v>
       </c>
-    </row>
-    <row r="2188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2188" t="s">
         <v>31</v>
       </c>
@@ -41463,8 +41598,11 @@
       <c r="C2188">
         <v>9</v>
       </c>
-    </row>
-    <row r="2189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2189" t="s">
         <v>31</v>
       </c>
@@ -41474,8 +41612,11 @@
       <c r="C2189">
         <v>10</v>
       </c>
-    </row>
-    <row r="2190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2190" t="s">
         <v>31</v>
       </c>
@@ -41485,8 +41626,14 @@
       <c r="C2190">
         <v>1</v>
       </c>
-    </row>
-    <row r="2191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2190">
+        <v>1</v>
+      </c>
+      <c r="F2190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2191" t="s">
         <v>31</v>
       </c>
@@ -41496,8 +41643,11 @@
       <c r="C2191">
         <v>2</v>
       </c>
-    </row>
-    <row r="2192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2192" t="s">
         <v>31</v>
       </c>
@@ -41507,8 +41657,11 @@
       <c r="C2192">
         <v>3</v>
       </c>
-    </row>
-    <row r="2193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2193" t="s">
         <v>31</v>
       </c>
@@ -41518,8 +41671,11 @@
       <c r="C2193">
         <v>4</v>
       </c>
-    </row>
-    <row r="2194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2194" t="s">
         <v>31</v>
       </c>
@@ -41529,8 +41685,11 @@
       <c r="C2194">
         <v>5</v>
       </c>
-    </row>
-    <row r="2195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2195" t="s">
         <v>31</v>
       </c>
@@ -41540,8 +41699,11 @@
       <c r="C2195">
         <v>6</v>
       </c>
-    </row>
-    <row r="2196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2196" t="s">
         <v>31</v>
       </c>
@@ -41551,8 +41713,11 @@
       <c r="C2196">
         <v>7</v>
       </c>
-    </row>
-    <row r="2197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2197" t="s">
         <v>31</v>
       </c>
@@ -41562,8 +41727,14 @@
       <c r="C2197">
         <v>8</v>
       </c>
-    </row>
-    <row r="2198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2197">
+        <v>1</v>
+      </c>
+      <c r="F2197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2198" t="s">
         <v>31</v>
       </c>
@@ -41573,8 +41744,11 @@
       <c r="C2198">
         <v>9</v>
       </c>
-    </row>
-    <row r="2199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2199" t="s">
         <v>31</v>
       </c>
@@ -41584,8 +41758,11 @@
       <c r="C2199">
         <v>10</v>
       </c>
-    </row>
-    <row r="2200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2200" t="s">
         <v>31</v>
       </c>
@@ -41595,8 +41772,32 @@
       <c r="C2200">
         <v>1</v>
       </c>
-    </row>
-    <row r="2201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2200" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2200">
+        <v>3</v>
+      </c>
+      <c r="F2200">
+        <v>3</v>
+      </c>
+      <c r="G2200">
+        <v>1</v>
+      </c>
+      <c r="H2200">
+        <v>3</v>
+      </c>
+      <c r="I2200">
+        <v>10</v>
+      </c>
+      <c r="J2200">
+        <v>5</v>
+      </c>
+      <c r="K2200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2201" t="s">
         <v>31</v>
       </c>
@@ -41606,8 +41807,14 @@
       <c r="C2201">
         <v>2</v>
       </c>
-    </row>
-    <row r="2202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2201">
+        <v>4</v>
+      </c>
+      <c r="F2201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2202" t="s">
         <v>31</v>
       </c>
@@ -41617,8 +41824,23 @@
       <c r="C2202">
         <v>3</v>
       </c>
-    </row>
-    <row r="2203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2202" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2202">
+        <v>3</v>
+      </c>
+      <c r="F2202">
+        <v>3</v>
+      </c>
+      <c r="G2202">
+        <v>2</v>
+      </c>
+      <c r="H2202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2203" t="s">
         <v>31</v>
       </c>
@@ -41628,8 +41850,14 @@
       <c r="C2203">
         <v>4</v>
       </c>
-    </row>
-    <row r="2204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2203">
+        <v>2</v>
+      </c>
+      <c r="F2203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2204" t="s">
         <v>31</v>
       </c>
@@ -41639,8 +41867,17 @@
       <c r="C2204">
         <v>5</v>
       </c>
-    </row>
-    <row r="2205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2204">
+        <v>1</v>
+      </c>
+      <c r="F2204">
+        <v>4</v>
+      </c>
+      <c r="G2204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2205" t="s">
         <v>31</v>
       </c>
@@ -41650,8 +41887,20 @@
       <c r="C2205">
         <v>6</v>
       </c>
-    </row>
-    <row r="2206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2205" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2205">
+        <v>4</v>
+      </c>
+      <c r="F2205">
+        <v>1</v>
+      </c>
+      <c r="G2205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2206" t="s">
         <v>31</v>
       </c>
@@ -41661,8 +41910,17 @@
       <c r="C2206">
         <v>7</v>
       </c>
-    </row>
-    <row r="2207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2206">
+        <v>1</v>
+      </c>
+      <c r="F2206">
+        <v>1</v>
+      </c>
+      <c r="G2206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2207" t="s">
         <v>31</v>
       </c>
@@ -41672,8 +41930,17 @@
       <c r="C2207">
         <v>8</v>
       </c>
-    </row>
-    <row r="2208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2207" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2207">
+        <v>5</v>
+      </c>
+      <c r="F2207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2208" t="s">
         <v>31</v>
       </c>
@@ -41683,8 +41950,29 @@
       <c r="C2208">
         <v>9</v>
       </c>
-    </row>
-    <row r="2209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2208">
+        <v>3</v>
+      </c>
+      <c r="F2208">
+        <v>1</v>
+      </c>
+      <c r="G2208">
+        <v>1</v>
+      </c>
+      <c r="H2208">
+        <v>1</v>
+      </c>
+      <c r="I2208">
+        <v>1</v>
+      </c>
+      <c r="J2208">
+        <v>2</v>
+      </c>
+      <c r="K2208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2209" t="s">
         <v>31</v>
       </c>
@@ -41694,8 +41982,26 @@
       <c r="C2209">
         <v>10</v>
       </c>
-    </row>
-    <row r="2210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2209">
+        <v>4</v>
+      </c>
+      <c r="F2209">
+        <v>3</v>
+      </c>
+      <c r="G2209">
+        <v>1</v>
+      </c>
+      <c r="H2209">
+        <v>1</v>
+      </c>
+      <c r="I2209">
+        <v>5</v>
+      </c>
+      <c r="J2209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2210" t="s">
         <v>31</v>
       </c>
@@ -41705,8 +42011,11 @@
       <c r="C2210">
         <v>1</v>
       </c>
-    </row>
-    <row r="2211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2211" t="s">
         <v>31</v>
       </c>
@@ -41716,8 +42025,17 @@
       <c r="C2211">
         <v>2</v>
       </c>
-    </row>
-    <row r="2212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2211" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2211">
+        <v>6</v>
+      </c>
+      <c r="F2211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2212" t="s">
         <v>31</v>
       </c>
@@ -41727,8 +42045,11 @@
       <c r="C2212">
         <v>3</v>
       </c>
-    </row>
-    <row r="2213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2213" t="s">
         <v>31</v>
       </c>
@@ -41738,8 +42059,20 @@
       <c r="C2213">
         <v>4</v>
       </c>
-    </row>
-    <row r="2214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2213" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2213">
+        <v>3</v>
+      </c>
+      <c r="F2213">
+        <v>1</v>
+      </c>
+      <c r="G2213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2214" t="s">
         <v>31</v>
       </c>
@@ -41749,8 +42082,17 @@
       <c r="C2214">
         <v>5</v>
       </c>
-    </row>
-    <row r="2215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2214">
+        <v>1</v>
+      </c>
+      <c r="F2214">
+        <v>1</v>
+      </c>
+      <c r="G2214">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2215" t="s">
         <v>31</v>
       </c>
@@ -41760,8 +42102,11 @@
       <c r="C2215">
         <v>6</v>
       </c>
-    </row>
-    <row r="2216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2216" t="s">
         <v>31</v>
       </c>
@@ -41771,8 +42116,17 @@
       <c r="C2216">
         <v>7</v>
       </c>
-    </row>
-    <row r="2217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2216" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2216">
+        <v>1</v>
+      </c>
+      <c r="F2216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2217" t="s">
         <v>31</v>
       </c>
@@ -41782,8 +42136,23 @@
       <c r="C2217">
         <v>8</v>
       </c>
-    </row>
-    <row r="2218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2217" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2217">
+        <v>1</v>
+      </c>
+      <c r="F2217">
+        <v>2</v>
+      </c>
+      <c r="G2217">
+        <v>2</v>
+      </c>
+      <c r="H2217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2218" t="s">
         <v>31</v>
       </c>
@@ -41793,8 +42162,23 @@
       <c r="C2218">
         <v>9</v>
       </c>
-    </row>
-    <row r="2219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2218" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2218">
+        <v>3</v>
+      </c>
+      <c r="F2218">
+        <v>2</v>
+      </c>
+      <c r="G2218">
+        <v>5</v>
+      </c>
+      <c r="H2218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2219" t="s">
         <v>31</v>
       </c>
@@ -41804,8 +42188,44 @@
       <c r="C2219">
         <v>10</v>
       </c>
-    </row>
-    <row r="2220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2219" s="1">
+        <v>23</v>
+      </c>
+      <c r="E2219">
+        <v>5</v>
+      </c>
+      <c r="F2219">
+        <v>5</v>
+      </c>
+      <c r="G2219">
+        <v>4</v>
+      </c>
+      <c r="H2219">
+        <v>4</v>
+      </c>
+      <c r="I2219">
+        <v>2</v>
+      </c>
+      <c r="J2219">
+        <v>3</v>
+      </c>
+      <c r="K2219">
+        <v>3</v>
+      </c>
+      <c r="L2219">
+        <v>2</v>
+      </c>
+      <c r="M2219">
+        <v>5</v>
+      </c>
+      <c r="N2219">
+        <v>3</v>
+      </c>
+      <c r="O2219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2220" t="s">
         <v>31</v>
       </c>
@@ -41815,8 +42235,23 @@
       <c r="C2220">
         <v>1</v>
       </c>
-    </row>
-    <row r="2221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2220" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2220">
+        <v>2</v>
+      </c>
+      <c r="F2220">
+        <v>1</v>
+      </c>
+      <c r="G2220">
+        <v>1</v>
+      </c>
+      <c r="H2220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2221" t="s">
         <v>31</v>
       </c>
@@ -41826,8 +42261,11 @@
       <c r="C2221">
         <v>2</v>
       </c>
-    </row>
-    <row r="2222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2222" t="s">
         <v>31</v>
       </c>
@@ -41837,8 +42275,11 @@
       <c r="C2222">
         <v>3</v>
       </c>
-    </row>
-    <row r="2223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2223" t="s">
         <v>31</v>
       </c>
@@ -41848,8 +42289,11 @@
       <c r="C2223">
         <v>4</v>
       </c>
-    </row>
-    <row r="2224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2224" t="s">
         <v>31</v>
       </c>
@@ -41859,8 +42303,11 @@
       <c r="C2224">
         <v>5</v>
       </c>
-    </row>
-    <row r="2225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2225" t="s">
         <v>31</v>
       </c>
@@ -41870,8 +42317,14 @@
       <c r="C2225">
         <v>6</v>
       </c>
-    </row>
-    <row r="2226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2225">
+        <v>1</v>
+      </c>
+      <c r="F2225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2226" t="s">
         <v>31</v>
       </c>
@@ -41881,8 +42334,14 @@
       <c r="C2226">
         <v>7</v>
       </c>
-    </row>
-    <row r="2227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2226" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2227" t="s">
         <v>31</v>
       </c>
@@ -41892,8 +42351,23 @@
       <c r="C2227">
         <v>8</v>
       </c>
-    </row>
-    <row r="2228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2227" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2227">
+        <v>4</v>
+      </c>
+      <c r="F2227">
+        <v>1</v>
+      </c>
+      <c r="G2227">
+        <v>1</v>
+      </c>
+      <c r="H2227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2228" t="s">
         <v>31</v>
       </c>
@@ -41903,8 +42377,17 @@
       <c r="C2228">
         <v>9</v>
       </c>
-    </row>
-    <row r="2229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2228" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2228">
+        <v>1</v>
+      </c>
+      <c r="F2228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2229" t="s">
         <v>31</v>
       </c>
@@ -41914,8 +42397,20 @@
       <c r="C2229">
         <v>10</v>
       </c>
-    </row>
-    <row r="2230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2229" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2229">
+        <v>4</v>
+      </c>
+      <c r="F2229">
+        <v>1</v>
+      </c>
+      <c r="G2229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2230" t="s">
         <v>31</v>
       </c>
@@ -41925,8 +42420,14 @@
       <c r="C2230">
         <v>1</v>
       </c>
-    </row>
-    <row r="2231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2230">
+        <v>4</v>
+      </c>
+      <c r="F2230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2231" t="s">
         <v>31</v>
       </c>
@@ -41936,8 +42437,17 @@
       <c r="C2231">
         <v>2</v>
       </c>
-    </row>
-    <row r="2232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2231" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2231">
+        <v>2</v>
+      </c>
+      <c r="F2231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2232" t="s">
         <v>31</v>
       </c>
@@ -41947,8 +42457,20 @@
       <c r="C2232">
         <v>3</v>
       </c>
-    </row>
-    <row r="2233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2232" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2232">
+        <v>1</v>
+      </c>
+      <c r="F2232">
+        <v>1</v>
+      </c>
+      <c r="G2232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2233" t="s">
         <v>31</v>
       </c>
@@ -41958,8 +42480,23 @@
       <c r="C2233">
         <v>4</v>
       </c>
-    </row>
-    <row r="2234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2233">
+        <v>1</v>
+      </c>
+      <c r="F2233">
+        <v>1</v>
+      </c>
+      <c r="G2233">
+        <v>1</v>
+      </c>
+      <c r="H2233">
+        <v>2</v>
+      </c>
+      <c r="I2233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2234" t="s">
         <v>31</v>
       </c>
@@ -41969,8 +42506,20 @@
       <c r="C2234">
         <v>5</v>
       </c>
-    </row>
-    <row r="2235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2234">
+        <v>1</v>
+      </c>
+      <c r="F2234">
+        <v>1</v>
+      </c>
+      <c r="G2234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2235" t="s">
         <v>31</v>
       </c>
@@ -41980,8 +42529,20 @@
       <c r="C2235">
         <v>6</v>
       </c>
-    </row>
-    <row r="2236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2235">
+        <v>5</v>
+      </c>
+      <c r="F2235">
+        <v>1</v>
+      </c>
+      <c r="G2235">
+        <v>1</v>
+      </c>
+      <c r="H2235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2236" t="s">
         <v>31</v>
       </c>
@@ -41991,8 +42552,23 @@
       <c r="C2236">
         <v>7</v>
       </c>
-    </row>
-    <row r="2237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2236" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2236">
+        <v>1</v>
+      </c>
+      <c r="F2236">
+        <v>1</v>
+      </c>
+      <c r="G2236">
+        <v>4</v>
+      </c>
+      <c r="H2236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2237" t="s">
         <v>31</v>
       </c>
@@ -42002,8 +42578,14 @@
       <c r="C2237">
         <v>8</v>
       </c>
-    </row>
-    <row r="2238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2237">
+        <v>3</v>
+      </c>
+      <c r="F2237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2238" t="s">
         <v>31</v>
       </c>
@@ -42013,8 +42595,14 @@
       <c r="C2238">
         <v>9</v>
       </c>
-    </row>
-    <row r="2239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2238">
+        <v>2</v>
+      </c>
+      <c r="F2238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2239" t="s">
         <v>31</v>
       </c>
@@ -42024,8 +42612,20 @@
       <c r="C2239">
         <v>10</v>
       </c>
-    </row>
-    <row r="2240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2239">
+        <v>5</v>
+      </c>
+      <c r="F2239">
+        <v>1</v>
+      </c>
+      <c r="G2239">
+        <v>2</v>
+      </c>
+      <c r="H2239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2240" t="s">
         <v>31</v>
       </c>
@@ -42035,8 +42635,20 @@
       <c r="C2240">
         <v>1</v>
       </c>
-    </row>
-    <row r="2241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2240">
+        <v>1</v>
+      </c>
+      <c r="F2240">
+        <v>1</v>
+      </c>
+      <c r="G2240">
+        <v>3</v>
+      </c>
+      <c r="H2240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2241" t="s">
         <v>31</v>
       </c>
@@ -42046,8 +42658,23 @@
       <c r="C2241">
         <v>2</v>
       </c>
-    </row>
-    <row r="2242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2241">
+        <v>1</v>
+      </c>
+      <c r="F2241">
+        <v>1</v>
+      </c>
+      <c r="G2241">
+        <v>1</v>
+      </c>
+      <c r="H2241">
+        <v>5</v>
+      </c>
+      <c r="I2241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2242" t="s">
         <v>31</v>
       </c>
@@ -42057,8 +42684,20 @@
       <c r="C2242">
         <v>3</v>
       </c>
-    </row>
-    <row r="2243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2242">
+        <v>2</v>
+      </c>
+      <c r="F2242">
+        <v>1</v>
+      </c>
+      <c r="G2242">
+        <v>7</v>
+      </c>
+      <c r="H2242">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2243" t="s">
         <v>31</v>
       </c>
@@ -42068,8 +42707,11 @@
       <c r="C2243">
         <v>4</v>
       </c>
-    </row>
-    <row r="2244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2244" t="s">
         <v>31</v>
       </c>
@@ -42079,8 +42721,23 @@
       <c r="C2244">
         <v>5</v>
       </c>
-    </row>
-    <row r="2245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2244">
+        <v>1</v>
+      </c>
+      <c r="F2244">
+        <v>1</v>
+      </c>
+      <c r="G2244">
+        <v>2</v>
+      </c>
+      <c r="H2244">
+        <v>1</v>
+      </c>
+      <c r="I2244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2245" t="s">
         <v>31</v>
       </c>
@@ -42090,8 +42747,11 @@
       <c r="C2245">
         <v>6</v>
       </c>
-    </row>
-    <row r="2246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2246" t="s">
         <v>31</v>
       </c>
@@ -42101,8 +42761,20 @@
       <c r="C2246">
         <v>7</v>
       </c>
-    </row>
-    <row r="2247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2246">
+        <v>1</v>
+      </c>
+      <c r="F2246">
+        <v>1</v>
+      </c>
+      <c r="G2246">
+        <v>2</v>
+      </c>
+      <c r="H2246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2247" t="s">
         <v>31</v>
       </c>
@@ -42112,8 +42784,17 @@
       <c r="C2247">
         <v>8</v>
       </c>
-    </row>
-    <row r="2248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2247" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2247">
+        <v>5</v>
+      </c>
+      <c r="F2247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2248" t="s">
         <v>31</v>
       </c>
@@ -42123,8 +42804,11 @@
       <c r="C2248">
         <v>9</v>
       </c>
-    </row>
-    <row r="2249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2249" t="s">
         <v>31</v>
       </c>
@@ -42134,8 +42818,14 @@
       <c r="C2249">
         <v>10</v>
       </c>
-    </row>
-    <row r="2250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2249">
+        <v>2</v>
+      </c>
+      <c r="F2249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2250" t="s">
         <v>31</v>
       </c>
@@ -42145,8 +42835,11 @@
       <c r="C2250">
         <v>1</v>
       </c>
-    </row>
-    <row r="2251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2251" t="s">
         <v>31</v>
       </c>
@@ -42156,8 +42849,11 @@
       <c r="C2251">
         <v>2</v>
       </c>
-    </row>
-    <row r="2252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2252" t="s">
         <v>31</v>
       </c>
@@ -42167,8 +42863,11 @@
       <c r="C2252">
         <v>3</v>
       </c>
-    </row>
-    <row r="2253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2253" t="s">
         <v>31</v>
       </c>
@@ -42178,8 +42877,11 @@
       <c r="C2253">
         <v>4</v>
       </c>
-    </row>
-    <row r="2254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2254" t="s">
         <v>31</v>
       </c>
@@ -42189,8 +42891,14 @@
       <c r="C2254">
         <v>5</v>
       </c>
-    </row>
-    <row r="2255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2254">
+        <v>1</v>
+      </c>
+      <c r="F2254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2255" t="s">
         <v>31</v>
       </c>
@@ -42200,8 +42908,11 @@
       <c r="C2255">
         <v>6</v>
       </c>
-    </row>
-    <row r="2256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2256" t="s">
         <v>31</v>
       </c>
@@ -42211,8 +42922,11 @@
       <c r="C2256">
         <v>7</v>
       </c>
-    </row>
-    <row r="2257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2257" t="s">
         <v>31</v>
       </c>
@@ -42222,8 +42936,11 @@
       <c r="C2257">
         <v>8</v>
       </c>
-    </row>
-    <row r="2258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2258" t="s">
         <v>31</v>
       </c>
@@ -42233,8 +42950,11 @@
       <c r="C2258">
         <v>9</v>
       </c>
-    </row>
-    <row r="2259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2259" t="s">
         <v>31</v>
       </c>
@@ -42243,6 +42963,3777 @@
       </c>
       <c r="C2259">
         <v>10</v>
+      </c>
+      <c r="E2259">
+        <v>1</v>
+      </c>
+      <c r="F2259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2260" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2260">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2260">
+        <v>1</v>
+      </c>
+      <c r="D2260" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2260">
+        <v>2</v>
+      </c>
+      <c r="F2260">
+        <v>2</v>
+      </c>
+      <c r="G2260">
+        <v>1</v>
+      </c>
+      <c r="H2260">
+        <v>2</v>
+      </c>
+      <c r="I2260">
+        <v>2</v>
+      </c>
+      <c r="J2260">
+        <v>1</v>
+      </c>
+      <c r="K2260">
+        <v>3</v>
+      </c>
+      <c r="L2260">
+        <v>3</v>
+      </c>
+      <c r="M2260">
+        <v>1</v>
+      </c>
+      <c r="N2260">
+        <v>2</v>
+      </c>
+      <c r="O2260">
+        <v>3</v>
+      </c>
+      <c r="P2260">
+        <v>6</v>
+      </c>
+      <c r="Q2260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2261" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2261">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2261">
+        <v>2</v>
+      </c>
+      <c r="D2261" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2261">
+        <v>4</v>
+      </c>
+      <c r="F2261">
+        <v>1</v>
+      </c>
+      <c r="G2261">
+        <v>1</v>
+      </c>
+      <c r="H2261">
+        <v>1</v>
+      </c>
+      <c r="I2261">
+        <v>2</v>
+      </c>
+      <c r="J2261">
+        <v>2</v>
+      </c>
+      <c r="K2261">
+        <v>1</v>
+      </c>
+      <c r="L2261">
+        <v>1</v>
+      </c>
+      <c r="M2261">
+        <v>1</v>
+      </c>
+      <c r="N2261">
+        <v>1</v>
+      </c>
+      <c r="O2261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2262" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2262">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2262">
+        <v>3</v>
+      </c>
+      <c r="E2262">
+        <v>1</v>
+      </c>
+      <c r="F2262">
+        <v>1</v>
+      </c>
+      <c r="G2262">
+        <v>1</v>
+      </c>
+      <c r="H2262">
+        <v>1</v>
+      </c>
+      <c r="I2262">
+        <v>4</v>
+      </c>
+      <c r="J2262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2263" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2263">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2263">
+        <v>4</v>
+      </c>
+      <c r="D2263" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2263">
+        <v>12</v>
+      </c>
+      <c r="F2263">
+        <v>17</v>
+      </c>
+      <c r="G2263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2264" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2264">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2264">
+        <v>5</v>
+      </c>
+      <c r="E2264">
+        <v>1</v>
+      </c>
+      <c r="F2264">
+        <v>5</v>
+      </c>
+      <c r="G2264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2265" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2265">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2265">
+        <v>6</v>
+      </c>
+      <c r="D2265" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2266" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2266">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2266">
+        <v>7</v>
+      </c>
+      <c r="E2266">
+        <v>2</v>
+      </c>
+      <c r="F2266">
+        <v>2</v>
+      </c>
+      <c r="G2266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2267" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2267">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2267">
+        <v>8</v>
+      </c>
+      <c r="E2267">
+        <v>1</v>
+      </c>
+      <c r="F2267">
+        <v>2</v>
+      </c>
+      <c r="G2267">
+        <v>1</v>
+      </c>
+      <c r="H2267">
+        <v>1</v>
+      </c>
+      <c r="I2267">
+        <v>1</v>
+      </c>
+      <c r="J2267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2268" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2268">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2268">
+        <v>9</v>
+      </c>
+      <c r="D2268" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2268">
+        <v>1</v>
+      </c>
+      <c r="F2268">
+        <v>2</v>
+      </c>
+      <c r="G2268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2269" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2269">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2269">
+        <v>10</v>
+      </c>
+      <c r="E2269">
+        <v>1</v>
+      </c>
+      <c r="F2269">
+        <v>1</v>
+      </c>
+      <c r="G2269">
+        <v>1</v>
+      </c>
+      <c r="H2269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2270" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2270">
+        <v>1.2</v>
+      </c>
+      <c r="C2270">
+        <v>1</v>
+      </c>
+      <c r="D2270" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2270">
+        <v>1</v>
+      </c>
+      <c r="F2270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2271" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2271">
+        <v>1.2</v>
+      </c>
+      <c r="C2271">
+        <v>2</v>
+      </c>
+      <c r="D2271" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2271">
+        <v>1</v>
+      </c>
+      <c r="F2271">
+        <v>1</v>
+      </c>
+      <c r="G2271">
+        <v>1</v>
+      </c>
+      <c r="H2271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2272" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2272">
+        <v>1.2</v>
+      </c>
+      <c r="C2272">
+        <v>3</v>
+      </c>
+      <c r="E2272">
+        <v>1</v>
+      </c>
+      <c r="F2272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2273" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2273">
+        <v>1.2</v>
+      </c>
+      <c r="C2273">
+        <v>4</v>
+      </c>
+      <c r="E2273">
+        <v>1</v>
+      </c>
+      <c r="F2273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2274" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2274">
+        <v>1.2</v>
+      </c>
+      <c r="C2274">
+        <v>5</v>
+      </c>
+      <c r="D2274" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2274">
+        <v>1</v>
+      </c>
+      <c r="F2274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2275" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2275">
+        <v>1.2</v>
+      </c>
+      <c r="C2275">
+        <v>6</v>
+      </c>
+      <c r="E2275">
+        <v>1</v>
+      </c>
+      <c r="F2275">
+        <v>1</v>
+      </c>
+      <c r="G2275">
+        <v>1</v>
+      </c>
+      <c r="H2275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2276" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2276">
+        <v>1.2</v>
+      </c>
+      <c r="C2276">
+        <v>7</v>
+      </c>
+      <c r="E2276">
+        <v>1</v>
+      </c>
+      <c r="F2276">
+        <v>3</v>
+      </c>
+      <c r="G2276">
+        <v>2</v>
+      </c>
+      <c r="H2276">
+        <v>1</v>
+      </c>
+      <c r="I2276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2277" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2277">
+        <v>1.2</v>
+      </c>
+      <c r="C2277">
+        <v>8</v>
+      </c>
+      <c r="D2277" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2277">
+        <v>2</v>
+      </c>
+      <c r="F2277">
+        <v>1</v>
+      </c>
+      <c r="G2277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2278" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2278">
+        <v>1.2</v>
+      </c>
+      <c r="C2278">
+        <v>9</v>
+      </c>
+      <c r="D2278" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2278">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2279" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2279">
+        <v>1.2</v>
+      </c>
+      <c r="C2279">
+        <v>10</v>
+      </c>
+      <c r="E2279">
+        <v>1</v>
+      </c>
+      <c r="F2279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2280" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2280">
+        <v>1.3</v>
+      </c>
+      <c r="C2280">
+        <v>1</v>
+      </c>
+      <c r="E2280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2281" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2281">
+        <v>1.3</v>
+      </c>
+      <c r="C2281">
+        <v>2</v>
+      </c>
+      <c r="E2281">
+        <v>1</v>
+      </c>
+      <c r="F2281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2282" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2282">
+        <v>1.3</v>
+      </c>
+      <c r="C2282">
+        <v>3</v>
+      </c>
+      <c r="E2282">
+        <v>1</v>
+      </c>
+      <c r="F2282">
+        <v>1</v>
+      </c>
+      <c r="G2282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2283" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2283">
+        <v>1.3</v>
+      </c>
+      <c r="C2283">
+        <v>4</v>
+      </c>
+      <c r="E2283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2284" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2284">
+        <v>1.3</v>
+      </c>
+      <c r="C2284">
+        <v>5</v>
+      </c>
+      <c r="E2284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2285" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2285">
+        <v>1.3</v>
+      </c>
+      <c r="C2285">
+        <v>6</v>
+      </c>
+      <c r="E2285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2286" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2286">
+        <v>1.3</v>
+      </c>
+      <c r="C2286">
+        <v>7</v>
+      </c>
+      <c r="E2286">
+        <v>1</v>
+      </c>
+      <c r="F2286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2287" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2287">
+        <v>1.3</v>
+      </c>
+      <c r="C2287">
+        <v>8</v>
+      </c>
+      <c r="E2287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2288" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2288">
+        <v>1.3</v>
+      </c>
+      <c r="C2288">
+        <v>9</v>
+      </c>
+      <c r="E2288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2289" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2289">
+        <v>1.3</v>
+      </c>
+      <c r="C2289">
+        <v>10</v>
+      </c>
+      <c r="E2289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2290" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2290">
+        <v>2.1</v>
+      </c>
+      <c r="C2290">
+        <v>1</v>
+      </c>
+      <c r="E2290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2291" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2291">
+        <v>2.1</v>
+      </c>
+      <c r="C2291">
+        <v>2</v>
+      </c>
+      <c r="E2291">
+        <v>2</v>
+      </c>
+      <c r="F2291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2292" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2292">
+        <v>2.1</v>
+      </c>
+      <c r="C2292">
+        <v>3</v>
+      </c>
+      <c r="E2292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2293" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2293">
+        <v>2.1</v>
+      </c>
+      <c r="C2293">
+        <v>4</v>
+      </c>
+      <c r="E2293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2294" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2294">
+        <v>2.1</v>
+      </c>
+      <c r="C2294">
+        <v>5</v>
+      </c>
+      <c r="E2294">
+        <v>1</v>
+      </c>
+      <c r="F2294">
+        <v>1</v>
+      </c>
+      <c r="G2294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2295" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2295">
+        <v>2.1</v>
+      </c>
+      <c r="C2295">
+        <v>6</v>
+      </c>
+      <c r="E2295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2296" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2296">
+        <v>2.1</v>
+      </c>
+      <c r="C2296">
+        <v>7</v>
+      </c>
+      <c r="E2296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2297" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2297">
+        <v>2.1</v>
+      </c>
+      <c r="C2297">
+        <v>8</v>
+      </c>
+      <c r="E2297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2298" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2298">
+        <v>2.1</v>
+      </c>
+      <c r="C2298">
+        <v>9</v>
+      </c>
+      <c r="E2298">
+        <v>1</v>
+      </c>
+      <c r="F2298">
+        <v>1</v>
+      </c>
+      <c r="G2298">
+        <v>1</v>
+      </c>
+      <c r="H2298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2299" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2299">
+        <v>2.1</v>
+      </c>
+      <c r="C2299">
+        <v>10</v>
+      </c>
+      <c r="E2299">
+        <v>1</v>
+      </c>
+      <c r="F2299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2300" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2300">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2300">
+        <v>1</v>
+      </c>
+      <c r="D2300" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2300">
+        <v>1</v>
+      </c>
+      <c r="F2300">
+        <v>6</v>
+      </c>
+      <c r="G2300">
+        <v>3</v>
+      </c>
+      <c r="H2300">
+        <v>5</v>
+      </c>
+      <c r="I2300">
+        <v>2</v>
+      </c>
+      <c r="J2300">
+        <v>3</v>
+      </c>
+      <c r="K2300">
+        <v>8</v>
+      </c>
+      <c r="L2300">
+        <v>2</v>
+      </c>
+      <c r="M2300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2301" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2301">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2301">
+        <v>2</v>
+      </c>
+      <c r="E2301">
+        <v>3</v>
+      </c>
+      <c r="F2301">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2302" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2302">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2302">
+        <v>3</v>
+      </c>
+      <c r="E2302">
+        <v>3</v>
+      </c>
+      <c r="F2302">
+        <v>5</v>
+      </c>
+      <c r="G2302">
+        <v>1</v>
+      </c>
+      <c r="H2302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2303" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2303">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2303">
+        <v>4</v>
+      </c>
+      <c r="E2303">
+        <v>2</v>
+      </c>
+      <c r="F2303">
+        <v>1</v>
+      </c>
+      <c r="G2303">
+        <v>6</v>
+      </c>
+      <c r="H2303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2304" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2304">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2304">
+        <v>5</v>
+      </c>
+      <c r="E2304">
+        <v>1</v>
+      </c>
+      <c r="F2304">
+        <v>1</v>
+      </c>
+      <c r="G2304">
+        <v>3</v>
+      </c>
+      <c r="H2304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2305" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2305">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2305">
+        <v>6</v>
+      </c>
+      <c r="E2305">
+        <v>10</v>
+      </c>
+      <c r="F2305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2306" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2306">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2306">
+        <v>7</v>
+      </c>
+      <c r="E2306">
+        <v>1</v>
+      </c>
+      <c r="F2306">
+        <v>1</v>
+      </c>
+      <c r="G2306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2307" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2307">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2307">
+        <v>8</v>
+      </c>
+      <c r="D2307" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2307">
+        <v>1</v>
+      </c>
+      <c r="F2307">
+        <v>1</v>
+      </c>
+      <c r="G2307">
+        <v>1</v>
+      </c>
+      <c r="H2307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2308" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2308">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2308">
+        <v>9</v>
+      </c>
+      <c r="E2308">
+        <v>1</v>
+      </c>
+      <c r="F2308">
+        <v>1</v>
+      </c>
+      <c r="G2308">
+        <v>1</v>
+      </c>
+      <c r="H2308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2309" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2309">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2309">
+        <v>10</v>
+      </c>
+      <c r="D2309" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2309">
+        <v>1</v>
+      </c>
+      <c r="F2309">
+        <v>2</v>
+      </c>
+      <c r="G2309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2310" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2310">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2310">
+        <v>1</v>
+      </c>
+      <c r="D2310" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2310">
+        <v>1</v>
+      </c>
+      <c r="F2310">
+        <v>1</v>
+      </c>
+      <c r="G2310">
+        <v>1</v>
+      </c>
+      <c r="H2310">
+        <v>1</v>
+      </c>
+      <c r="I2310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2311" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2311">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2311">
+        <v>2</v>
+      </c>
+      <c r="D2311" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2311">
+        <v>1</v>
+      </c>
+      <c r="F2311">
+        <v>1</v>
+      </c>
+      <c r="G2311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2312" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2312">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2312">
+        <v>3</v>
+      </c>
+      <c r="E2312">
+        <v>2</v>
+      </c>
+      <c r="F2312">
+        <v>5</v>
+      </c>
+      <c r="G2312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2313" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2313">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2313">
+        <v>4</v>
+      </c>
+      <c r="D2313" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2313">
+        <v>1</v>
+      </c>
+      <c r="F2313">
+        <v>1</v>
+      </c>
+      <c r="G2313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2314" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2314">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2314">
+        <v>5</v>
+      </c>
+      <c r="E2314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2315" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2315">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2315">
+        <v>6</v>
+      </c>
+      <c r="E2315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2316" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2316">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2316">
+        <v>7</v>
+      </c>
+      <c r="D2316" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2317" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2317">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2317">
+        <v>8</v>
+      </c>
+      <c r="D2317" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2318" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2318">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2318">
+        <v>9</v>
+      </c>
+      <c r="D2318" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2319" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2319">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2319">
+        <v>10</v>
+      </c>
+      <c r="E2319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2320" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2320">
+        <v>3.1</v>
+      </c>
+      <c r="C2320">
+        <v>1</v>
+      </c>
+      <c r="E2320">
+        <v>1</v>
+      </c>
+      <c r="F2320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2321" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2321">
+        <v>3.1</v>
+      </c>
+      <c r="C2321">
+        <v>2</v>
+      </c>
+      <c r="E2321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2322" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2322">
+        <v>3.1</v>
+      </c>
+      <c r="C2322">
+        <v>3</v>
+      </c>
+      <c r="D2322" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2323" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2323">
+        <v>3.1</v>
+      </c>
+      <c r="C2323">
+        <v>4</v>
+      </c>
+      <c r="E2323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2324" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2324">
+        <v>3.1</v>
+      </c>
+      <c r="C2324">
+        <v>5</v>
+      </c>
+      <c r="E2324">
+        <v>1</v>
+      </c>
+      <c r="F2324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2325" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2325">
+        <v>3.1</v>
+      </c>
+      <c r="C2325">
+        <v>6</v>
+      </c>
+      <c r="E2325">
+        <v>2</v>
+      </c>
+      <c r="F2325">
+        <v>1</v>
+      </c>
+      <c r="G2325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2326" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2326">
+        <v>3.1</v>
+      </c>
+      <c r="C2326">
+        <v>7</v>
+      </c>
+      <c r="E2326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2327" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2327">
+        <v>3.1</v>
+      </c>
+      <c r="C2327">
+        <v>8</v>
+      </c>
+      <c r="E2327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2328" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2328">
+        <v>3.1</v>
+      </c>
+      <c r="C2328">
+        <v>9</v>
+      </c>
+      <c r="E2328">
+        <v>1</v>
+      </c>
+      <c r="F2328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2329" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2329">
+        <v>3.1</v>
+      </c>
+      <c r="C2329">
+        <v>10</v>
+      </c>
+      <c r="E2329">
+        <v>1</v>
+      </c>
+      <c r="F2329" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2330" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2330">
+        <v>3.2</v>
+      </c>
+      <c r="C2330">
+        <v>1</v>
+      </c>
+      <c r="D2330" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2330">
+        <v>1</v>
+      </c>
+      <c r="F2330">
+        <v>1</v>
+      </c>
+      <c r="G2330">
+        <v>2</v>
+      </c>
+      <c r="H2330">
+        <v>2</v>
+      </c>
+      <c r="I2330">
+        <v>1</v>
+      </c>
+      <c r="J2330">
+        <v>1</v>
+      </c>
+      <c r="K2330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2331" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2331">
+        <v>3.2</v>
+      </c>
+      <c r="C2331">
+        <v>2</v>
+      </c>
+      <c r="D2331" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2331">
+        <v>1</v>
+      </c>
+      <c r="F2331">
+        <v>2</v>
+      </c>
+      <c r="G2331">
+        <v>1</v>
+      </c>
+      <c r="H2331">
+        <v>1</v>
+      </c>
+      <c r="I2331">
+        <v>1</v>
+      </c>
+      <c r="J2331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2332" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2332">
+        <v>3.2</v>
+      </c>
+      <c r="C2332">
+        <v>3</v>
+      </c>
+      <c r="E2332">
+        <v>1</v>
+      </c>
+      <c r="F2332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2333" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2333">
+        <v>3.2</v>
+      </c>
+      <c r="C2333">
+        <v>4</v>
+      </c>
+      <c r="E2333">
+        <v>1</v>
+      </c>
+      <c r="F2333">
+        <v>1</v>
+      </c>
+      <c r="G2333">
+        <v>1</v>
+      </c>
+      <c r="H2333">
+        <v>1</v>
+      </c>
+      <c r="I2333">
+        <v>1</v>
+      </c>
+      <c r="J2333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2334" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2334">
+        <v>3.2</v>
+      </c>
+      <c r="C2334">
+        <v>5</v>
+      </c>
+      <c r="E2334">
+        <v>1</v>
+      </c>
+      <c r="F2334">
+        <v>1</v>
+      </c>
+      <c r="G2334">
+        <v>1</v>
+      </c>
+      <c r="H2334">
+        <v>1</v>
+      </c>
+      <c r="I2334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2335" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2335">
+        <v>3.2</v>
+      </c>
+      <c r="C2335">
+        <v>6</v>
+      </c>
+      <c r="E2335">
+        <v>1</v>
+      </c>
+      <c r="F2335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2336" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2336">
+        <v>3.2</v>
+      </c>
+      <c r="C2336">
+        <v>7</v>
+      </c>
+      <c r="D2336" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2336">
+        <v>2</v>
+      </c>
+      <c r="F2336">
+        <v>1</v>
+      </c>
+      <c r="G2336">
+        <v>2</v>
+      </c>
+      <c r="H2336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2337" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2337">
+        <v>3.2</v>
+      </c>
+      <c r="C2337">
+        <v>8</v>
+      </c>
+      <c r="D2337" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2337">
+        <v>1</v>
+      </c>
+      <c r="F2337">
+        <v>2</v>
+      </c>
+      <c r="G2337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2338" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2338">
+        <v>3.2</v>
+      </c>
+      <c r="C2338">
+        <v>9</v>
+      </c>
+      <c r="D2338" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2338">
+        <v>3</v>
+      </c>
+      <c r="F2338">
+        <v>1</v>
+      </c>
+      <c r="G2338">
+        <v>4</v>
+      </c>
+      <c r="H2338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2339" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2339">
+        <v>3.2</v>
+      </c>
+      <c r="C2339">
+        <v>10</v>
+      </c>
+      <c r="D2339" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2339">
+        <v>1</v>
+      </c>
+      <c r="F2339">
+        <v>3</v>
+      </c>
+      <c r="G2339">
+        <v>3</v>
+      </c>
+      <c r="H2339">
+        <v>2</v>
+      </c>
+      <c r="I2339">
+        <v>1</v>
+      </c>
+      <c r="J2339">
+        <v>1</v>
+      </c>
+      <c r="K2339" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2340" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2340">
+        <v>3.3</v>
+      </c>
+      <c r="C2340">
+        <v>1</v>
+      </c>
+      <c r="E2340">
+        <v>1</v>
+      </c>
+      <c r="F2340">
+        <v>1</v>
+      </c>
+      <c r="G2340">
+        <v>2</v>
+      </c>
+      <c r="H2340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2341" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2341">
+        <v>3.3</v>
+      </c>
+      <c r="C2341">
+        <v>2</v>
+      </c>
+      <c r="D2341" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2341">
+        <v>1</v>
+      </c>
+      <c r="F2341">
+        <v>1</v>
+      </c>
+      <c r="G2341">
+        <v>1</v>
+      </c>
+      <c r="H2341">
+        <v>1</v>
+      </c>
+      <c r="I2341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2342" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2342">
+        <v>3.3</v>
+      </c>
+      <c r="C2342">
+        <v>3</v>
+      </c>
+      <c r="E2342">
+        <v>1</v>
+      </c>
+      <c r="F2342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2343" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2343">
+        <v>3.3</v>
+      </c>
+      <c r="C2343">
+        <v>4</v>
+      </c>
+      <c r="E2343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2344" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2344">
+        <v>3.3</v>
+      </c>
+      <c r="C2344">
+        <v>5</v>
+      </c>
+      <c r="E2344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2345" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2345">
+        <v>3.3</v>
+      </c>
+      <c r="C2345">
+        <v>6</v>
+      </c>
+      <c r="E2345">
+        <v>1</v>
+      </c>
+      <c r="F2345">
+        <v>1</v>
+      </c>
+      <c r="G2345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2346" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2346">
+        <v>3.3</v>
+      </c>
+      <c r="C2346">
+        <v>7</v>
+      </c>
+      <c r="E2346">
+        <v>1</v>
+      </c>
+      <c r="F2346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2347" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2347">
+        <v>3.3</v>
+      </c>
+      <c r="C2347">
+        <v>8</v>
+      </c>
+      <c r="E2347">
+        <v>1</v>
+      </c>
+      <c r="F2347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2348" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2348">
+        <v>3.3</v>
+      </c>
+      <c r="C2348">
+        <v>9</v>
+      </c>
+      <c r="E2348">
+        <v>2</v>
+      </c>
+      <c r="F2348">
+        <v>2</v>
+      </c>
+      <c r="G2348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2349" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2349">
+        <v>3.3</v>
+      </c>
+      <c r="C2349">
+        <v>10</v>
+      </c>
+      <c r="E2349">
+        <v>1</v>
+      </c>
+      <c r="F2349">
+        <v>1</v>
+      </c>
+      <c r="G2349" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2350" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2350">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2350">
+        <v>1</v>
+      </c>
+      <c r="D2350" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2350">
+        <v>7</v>
+      </c>
+      <c r="F2350">
+        <v>5</v>
+      </c>
+      <c r="G2350">
+        <v>1</v>
+      </c>
+      <c r="H2350">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2351" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2351">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2351">
+        <v>2</v>
+      </c>
+      <c r="D2351" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2351">
+        <v>1</v>
+      </c>
+      <c r="F2351">
+        <v>3</v>
+      </c>
+      <c r="G2351">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2352" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2352">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2352">
+        <v>3</v>
+      </c>
+      <c r="D2352" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2352">
+        <v>4</v>
+      </c>
+      <c r="F2352">
+        <v>3</v>
+      </c>
+      <c r="G2352">
+        <v>2</v>
+      </c>
+      <c r="H2352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2353" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2353">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2353">
+        <v>4</v>
+      </c>
+      <c r="D2353" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2353">
+        <v>8</v>
+      </c>
+      <c r="F2353">
+        <v>2</v>
+      </c>
+      <c r="G2353">
+        <v>4</v>
+      </c>
+      <c r="H2353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2354" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2354">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2354">
+        <v>5</v>
+      </c>
+      <c r="D2354" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2354">
+        <v>1</v>
+      </c>
+      <c r="F2354">
+        <v>2</v>
+      </c>
+      <c r="G2354">
+        <v>2</v>
+      </c>
+      <c r="H2354">
+        <v>27</v>
+      </c>
+      <c r="I2354">
+        <v>9</v>
+      </c>
+      <c r="J2354">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2355" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2355">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2355">
+        <v>6</v>
+      </c>
+      <c r="D2355" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2355">
+        <v>7</v>
+      </c>
+      <c r="F2355">
+        <v>3</v>
+      </c>
+      <c r="G2355">
+        <v>4</v>
+      </c>
+      <c r="H2355">
+        <v>1</v>
+      </c>
+      <c r="I2355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2356" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2356">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2356">
+        <v>7</v>
+      </c>
+      <c r="D2356" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2356">
+        <v>1</v>
+      </c>
+      <c r="F2356">
+        <v>1</v>
+      </c>
+      <c r="G2356">
+        <v>2</v>
+      </c>
+      <c r="H2356">
+        <v>1</v>
+      </c>
+      <c r="I2356">
+        <v>1</v>
+      </c>
+      <c r="J2356">
+        <v>1</v>
+      </c>
+      <c r="K2356">
+        <v>1</v>
+      </c>
+      <c r="L2356">
+        <v>1</v>
+      </c>
+      <c r="M2356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2357" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2357">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2357">
+        <v>8</v>
+      </c>
+      <c r="D2357" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2357">
+        <v>1</v>
+      </c>
+      <c r="F2357">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2358" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2358">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2358">
+        <v>9</v>
+      </c>
+      <c r="D2358" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2359" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2359">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2359">
+        <v>10</v>
+      </c>
+      <c r="E2359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2360" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2360">
+        <v>1.2</v>
+      </c>
+      <c r="C2360">
+        <v>1</v>
+      </c>
+      <c r="D2360" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2360">
+        <v>2</v>
+      </c>
+      <c r="F2360">
+        <v>1</v>
+      </c>
+      <c r="G2360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2361" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2361">
+        <v>1.2</v>
+      </c>
+      <c r="C2361">
+        <v>2</v>
+      </c>
+      <c r="D2361" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2361">
+        <v>1</v>
+      </c>
+      <c r="F2361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2362" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2362">
+        <v>1.2</v>
+      </c>
+      <c r="C2362">
+        <v>3</v>
+      </c>
+      <c r="E2362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2363" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2363">
+        <v>1.2</v>
+      </c>
+      <c r="C2363">
+        <v>4</v>
+      </c>
+      <c r="D2363" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2364" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2364">
+        <v>1.2</v>
+      </c>
+      <c r="C2364">
+        <v>5</v>
+      </c>
+      <c r="E2364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2365" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2365">
+        <v>1.2</v>
+      </c>
+      <c r="C2365">
+        <v>6</v>
+      </c>
+      <c r="E2365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2366" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2366">
+        <v>1.2</v>
+      </c>
+      <c r="C2366">
+        <v>7</v>
+      </c>
+      <c r="E2366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2367" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2367">
+        <v>1.2</v>
+      </c>
+      <c r="C2367">
+        <v>8</v>
+      </c>
+      <c r="D2367" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2367">
+        <v>6</v>
+      </c>
+      <c r="F2367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2368" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2368">
+        <v>1.2</v>
+      </c>
+      <c r="C2368">
+        <v>9</v>
+      </c>
+      <c r="E2368">
+        <v>1</v>
+      </c>
+      <c r="F2368">
+        <v>1</v>
+      </c>
+      <c r="G2368">
+        <v>4</v>
+      </c>
+      <c r="H2368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2369" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2369">
+        <v>1.2</v>
+      </c>
+      <c r="C2369">
+        <v>10</v>
+      </c>
+      <c r="E2369">
+        <v>1</v>
+      </c>
+      <c r="F2369">
+        <v>2</v>
+      </c>
+      <c r="G2369">
+        <v>1</v>
+      </c>
+      <c r="H2369" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2370" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2370">
+        <v>1.3</v>
+      </c>
+      <c r="C2370">
+        <v>1</v>
+      </c>
+      <c r="E2370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2371" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2371">
+        <v>1.3</v>
+      </c>
+      <c r="C2371">
+        <v>2</v>
+      </c>
+      <c r="E2371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2372" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2372">
+        <v>1.3</v>
+      </c>
+      <c r="C2372">
+        <v>3</v>
+      </c>
+      <c r="E2372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2373" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2373">
+        <v>1.3</v>
+      </c>
+      <c r="C2373">
+        <v>4</v>
+      </c>
+      <c r="E2373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2374" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2374">
+        <v>1.3</v>
+      </c>
+      <c r="C2374">
+        <v>5</v>
+      </c>
+      <c r="E2374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2375" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2375">
+        <v>1.3</v>
+      </c>
+      <c r="C2375">
+        <v>6</v>
+      </c>
+      <c r="E2375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2376" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2376">
+        <v>1.3</v>
+      </c>
+      <c r="C2376">
+        <v>7</v>
+      </c>
+      <c r="E2376">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2377" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2377">
+        <v>1.3</v>
+      </c>
+      <c r="C2377">
+        <v>8</v>
+      </c>
+      <c r="E2377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2378" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2378">
+        <v>1.3</v>
+      </c>
+      <c r="C2378">
+        <v>9</v>
+      </c>
+      <c r="E2378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2379" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2379">
+        <v>1.3</v>
+      </c>
+      <c r="C2379">
+        <v>10</v>
+      </c>
+      <c r="E2379">
+        <v>3</v>
+      </c>
+      <c r="F2379" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2380" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2380">
+        <v>2.1</v>
+      </c>
+      <c r="C2380">
+        <v>1</v>
+      </c>
+      <c r="E2380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2381" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2381">
+        <v>2.1</v>
+      </c>
+      <c r="C2381">
+        <v>2</v>
+      </c>
+      <c r="D2381" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2381">
+        <v>1</v>
+      </c>
+      <c r="F2381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2382" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2382">
+        <v>2.1</v>
+      </c>
+      <c r="C2382">
+        <v>3</v>
+      </c>
+      <c r="D2382" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2383" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2383">
+        <v>2.1</v>
+      </c>
+      <c r="C2383">
+        <v>4</v>
+      </c>
+      <c r="E2383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2384" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2384">
+        <v>2.1</v>
+      </c>
+      <c r="C2384">
+        <v>5</v>
+      </c>
+      <c r="E2384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2385" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2385">
+        <v>2.1</v>
+      </c>
+      <c r="C2385">
+        <v>6</v>
+      </c>
+      <c r="E2385">
+        <v>1</v>
+      </c>
+      <c r="F2385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2386" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2386">
+        <v>2.1</v>
+      </c>
+      <c r="C2386">
+        <v>7</v>
+      </c>
+      <c r="D2386" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2387" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2387">
+        <v>2.1</v>
+      </c>
+      <c r="C2387">
+        <v>8</v>
+      </c>
+      <c r="E2387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2388" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2388">
+        <v>2.1</v>
+      </c>
+      <c r="C2388">
+        <v>9</v>
+      </c>
+      <c r="D2388" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2389" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2389">
+        <v>2.1</v>
+      </c>
+      <c r="C2389">
+        <v>10</v>
+      </c>
+      <c r="E2389">
+        <v>2</v>
+      </c>
+      <c r="F2389" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2390" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2390">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2390">
+        <v>1</v>
+      </c>
+      <c r="D2390" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2390">
+        <v>1</v>
+      </c>
+      <c r="F2390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2391" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2391">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2391">
+        <v>2</v>
+      </c>
+      <c r="D2391" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2391">
+        <v>1</v>
+      </c>
+      <c r="F2391">
+        <v>3</v>
+      </c>
+      <c r="G2391">
+        <v>1</v>
+      </c>
+      <c r="H2391">
+        <v>1</v>
+      </c>
+      <c r="I2391">
+        <v>2</v>
+      </c>
+      <c r="J2391">
+        <v>1</v>
+      </c>
+      <c r="K2391">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2392" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2392">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2392">
+        <v>3</v>
+      </c>
+      <c r="D2392" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2392">
+        <v>8</v>
+      </c>
+      <c r="F2392">
+        <v>9</v>
+      </c>
+      <c r="G2392">
+        <v>2</v>
+      </c>
+      <c r="H2392">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2393" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2393">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2393">
+        <v>4</v>
+      </c>
+      <c r="D2393" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2393">
+        <v>1</v>
+      </c>
+      <c r="F2393">
+        <v>1</v>
+      </c>
+      <c r="G2393">
+        <v>2</v>
+      </c>
+      <c r="H2393">
+        <v>1</v>
+      </c>
+      <c r="I2393">
+        <v>1</v>
+      </c>
+      <c r="J2393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2394" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2394">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2394">
+        <v>5</v>
+      </c>
+      <c r="D2394" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2394">
+        <v>5</v>
+      </c>
+      <c r="F2394">
+        <v>2</v>
+      </c>
+      <c r="G2394">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2395" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2395">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2395">
+        <v>6</v>
+      </c>
+      <c r="D2395" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2395">
+        <v>1</v>
+      </c>
+      <c r="F2395">
+        <v>1</v>
+      </c>
+      <c r="G2395">
+        <v>1</v>
+      </c>
+      <c r="H2395">
+        <v>1</v>
+      </c>
+      <c r="I2395">
+        <v>2</v>
+      </c>
+      <c r="J2395">
+        <v>4</v>
+      </c>
+      <c r="K2395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2396" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2396">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2396">
+        <v>7</v>
+      </c>
+      <c r="D2396" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2396">
+        <v>2</v>
+      </c>
+      <c r="F2396">
+        <v>1</v>
+      </c>
+      <c r="G2396">
+        <v>3</v>
+      </c>
+      <c r="H2396">
+        <v>6</v>
+      </c>
+      <c r="I2396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2397" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2397">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2397">
+        <v>8</v>
+      </c>
+      <c r="D2397" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2397">
+        <v>2</v>
+      </c>
+      <c r="F2397">
+        <v>1</v>
+      </c>
+      <c r="G2397">
+        <v>4</v>
+      </c>
+      <c r="H2397">
+        <v>1</v>
+      </c>
+      <c r="I2397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2398" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2398">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2398">
+        <v>9</v>
+      </c>
+      <c r="D2398" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2398">
+        <v>1</v>
+      </c>
+      <c r="F2398">
+        <v>3</v>
+      </c>
+      <c r="G2398">
+        <v>1</v>
+      </c>
+      <c r="H2398">
+        <v>2</v>
+      </c>
+      <c r="I2398">
+        <v>1</v>
+      </c>
+      <c r="J2398">
+        <v>3</v>
+      </c>
+      <c r="K2398">
+        <v>2</v>
+      </c>
+      <c r="L2398">
+        <v>2</v>
+      </c>
+      <c r="M2398">
+        <v>1</v>
+      </c>
+      <c r="N2398">
+        <v>1</v>
+      </c>
+      <c r="O2398">
+        <v>1</v>
+      </c>
+      <c r="P2398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2399" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2399">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2399">
+        <v>10</v>
+      </c>
+      <c r="E2399">
+        <v>1</v>
+      </c>
+      <c r="F2399">
+        <v>1</v>
+      </c>
+      <c r="G2399">
+        <v>2</v>
+      </c>
+      <c r="H2399">
+        <v>3</v>
+      </c>
+      <c r="I2399" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2400" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2400">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2400">
+        <v>1</v>
+      </c>
+      <c r="D2400" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2400">
+        <v>1</v>
+      </c>
+      <c r="F2400">
+        <v>1</v>
+      </c>
+      <c r="G2400">
+        <v>1</v>
+      </c>
+      <c r="H2400">
+        <v>1</v>
+      </c>
+      <c r="I2400">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2401" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2401">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2401">
+        <v>2</v>
+      </c>
+      <c r="D2401" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2401">
+        <v>2</v>
+      </c>
+      <c r="F2401">
+        <v>11</v>
+      </c>
+      <c r="G2401">
+        <v>1</v>
+      </c>
+      <c r="H2401">
+        <v>17</v>
+      </c>
+      <c r="I2401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2402" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2402">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2402">
+        <v>3</v>
+      </c>
+      <c r="D2402" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2402">
+        <v>3</v>
+      </c>
+      <c r="F2402">
+        <v>1</v>
+      </c>
+      <c r="G2402">
+        <v>2</v>
+      </c>
+      <c r="H2402">
+        <v>7</v>
+      </c>
+      <c r="I2402">
+        <v>1</v>
+      </c>
+      <c r="J2402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2403" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2403">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2403">
+        <v>4</v>
+      </c>
+      <c r="D2403" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2403">
+        <v>1</v>
+      </c>
+      <c r="F2403">
+        <v>7</v>
+      </c>
+      <c r="G2403">
+        <v>1</v>
+      </c>
+      <c r="H2403">
+        <v>1</v>
+      </c>
+      <c r="I2403">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2404" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2404">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2404">
+        <v>5</v>
+      </c>
+      <c r="D2404" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2404">
+        <v>2</v>
+      </c>
+      <c r="F2404">
+        <v>2</v>
+      </c>
+      <c r="G2404">
+        <v>5</v>
+      </c>
+      <c r="H2404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2405" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2405">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2405">
+        <v>6</v>
+      </c>
+      <c r="D2405" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2405">
+        <v>2</v>
+      </c>
+      <c r="F2405">
+        <v>1</v>
+      </c>
+      <c r="G2405">
+        <v>3</v>
+      </c>
+      <c r="H2405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2406" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2406">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2406">
+        <v>7</v>
+      </c>
+      <c r="E2406">
+        <v>2</v>
+      </c>
+      <c r="F2406">
+        <v>1</v>
+      </c>
+      <c r="G2406">
+        <v>1</v>
+      </c>
+      <c r="H2406">
+        <v>1</v>
+      </c>
+      <c r="I2406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2407" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2407">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2407">
+        <v>8</v>
+      </c>
+      <c r="D2407" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2407">
+        <v>2</v>
+      </c>
+      <c r="F2407">
+        <v>1</v>
+      </c>
+      <c r="G2407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2408" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2408">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2408">
+        <v>9</v>
+      </c>
+      <c r="E2408">
+        <v>3</v>
+      </c>
+      <c r="F2408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2409" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2409">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2409">
+        <v>10</v>
+      </c>
+      <c r="E2409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2410" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2410">
+        <v>3.1</v>
+      </c>
+      <c r="C2410">
+        <v>1</v>
+      </c>
+      <c r="D2410" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2410">
+        <v>1</v>
+      </c>
+      <c r="F2410">
+        <v>1</v>
+      </c>
+      <c r="G2410">
+        <v>1</v>
+      </c>
+      <c r="H2410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2411" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2411">
+        <v>3.1</v>
+      </c>
+      <c r="C2411">
+        <v>2</v>
+      </c>
+      <c r="D2411" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2412" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2412">
+        <v>3.1</v>
+      </c>
+      <c r="C2412">
+        <v>3</v>
+      </c>
+      <c r="D2412" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2413" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2413">
+        <v>3.1</v>
+      </c>
+      <c r="C2413">
+        <v>4</v>
+      </c>
+      <c r="D2413" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2414" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2414">
+        <v>3.1</v>
+      </c>
+      <c r="C2414">
+        <v>5</v>
+      </c>
+      <c r="E2414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2415" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2415">
+        <v>3.1</v>
+      </c>
+      <c r="C2415">
+        <v>6</v>
+      </c>
+      <c r="E2415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2416" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2416">
+        <v>3.1</v>
+      </c>
+      <c r="C2416">
+        <v>7</v>
+      </c>
+      <c r="D2416" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2416">
+        <v>1</v>
+      </c>
+      <c r="F2416">
+        <v>1</v>
+      </c>
+      <c r="G2416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2417" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2417">
+        <v>3.1</v>
+      </c>
+      <c r="C2417">
+        <v>8</v>
+      </c>
+      <c r="D2417" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2418" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2418">
+        <v>3.1</v>
+      </c>
+      <c r="C2418">
+        <v>9</v>
+      </c>
+      <c r="D2418" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2419" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2419">
+        <v>3.1</v>
+      </c>
+      <c r="C2419">
+        <v>10</v>
+      </c>
+      <c r="D2419" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2419">
+        <v>2</v>
+      </c>
+      <c r="F2419">
+        <v>1</v>
+      </c>
+      <c r="G2419">
+        <v>1</v>
+      </c>
+      <c r="H2419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2420" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2420">
+        <v>3.2</v>
+      </c>
+      <c r="C2420">
+        <v>1</v>
+      </c>
+      <c r="E2420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2421" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2421">
+        <v>3.2</v>
+      </c>
+      <c r="C2421">
+        <v>2</v>
+      </c>
+      <c r="E2421">
+        <v>1</v>
+      </c>
+      <c r="F2421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2422" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2422">
+        <v>3.2</v>
+      </c>
+      <c r="C2422">
+        <v>3</v>
+      </c>
+      <c r="D2422" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2422">
+        <v>1</v>
+      </c>
+      <c r="F2422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2423" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2423">
+        <v>3.2</v>
+      </c>
+      <c r="C2423">
+        <v>4</v>
+      </c>
+      <c r="D2423" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2424" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2424">
+        <v>3.2</v>
+      </c>
+      <c r="C2424">
+        <v>5</v>
+      </c>
+      <c r="E2424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2425" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2425">
+        <v>3.2</v>
+      </c>
+      <c r="C2425">
+        <v>6</v>
+      </c>
+      <c r="E2425">
+        <v>1</v>
+      </c>
+      <c r="F2425">
+        <v>2</v>
+      </c>
+      <c r="G2425">
+        <v>1</v>
+      </c>
+      <c r="H2425">
+        <v>2</v>
+      </c>
+      <c r="I2425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2426" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2426">
+        <v>3.2</v>
+      </c>
+      <c r="C2426">
+        <v>7</v>
+      </c>
+      <c r="E2426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2427" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2427">
+        <v>3.2</v>
+      </c>
+      <c r="C2427">
+        <v>8</v>
+      </c>
+      <c r="E2427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2428" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2428">
+        <v>3.2</v>
+      </c>
+      <c r="C2428">
+        <v>9</v>
+      </c>
+      <c r="E2428">
+        <v>3</v>
+      </c>
+      <c r="F2428">
+        <v>1</v>
+      </c>
+      <c r="G2428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2429" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2429">
+        <v>3.2</v>
+      </c>
+      <c r="C2429">
+        <v>10</v>
+      </c>
+      <c r="E2429">
+        <v>1</v>
+      </c>
+      <c r="F2429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2430" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2430">
+        <v>3.3</v>
+      </c>
+      <c r="C2430">
+        <v>1</v>
+      </c>
+      <c r="E2430">
+        <v>3</v>
+      </c>
+      <c r="F2430">
+        <v>1</v>
+      </c>
+      <c r="G2430">
+        <v>2</v>
+      </c>
+      <c r="H2430">
+        <v>2</v>
+      </c>
+      <c r="I2430">
+        <v>1</v>
+      </c>
+      <c r="J2430">
+        <v>1</v>
+      </c>
+      <c r="K2430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2431" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2431">
+        <v>3.3</v>
+      </c>
+      <c r="C2431">
+        <v>2</v>
+      </c>
+      <c r="D2431" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2431">
+        <v>1</v>
+      </c>
+      <c r="F2431">
+        <v>3</v>
+      </c>
+      <c r="G2431">
+        <v>1</v>
+      </c>
+      <c r="H2431">
+        <v>1</v>
+      </c>
+      <c r="I2431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2432" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2432">
+        <v>3.3</v>
+      </c>
+      <c r="C2432">
+        <v>3</v>
+      </c>
+      <c r="E2432">
+        <v>1</v>
+      </c>
+      <c r="F2432">
+        <v>1</v>
+      </c>
+      <c r="G2432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2433" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2433">
+        <v>3.3</v>
+      </c>
+      <c r="C2433">
+        <v>4</v>
+      </c>
+      <c r="E2433">
+        <v>4</v>
+      </c>
+      <c r="F2433">
+        <v>4</v>
+      </c>
+      <c r="G2433">
+        <v>1</v>
+      </c>
+      <c r="H2433">
+        <v>1</v>
+      </c>
+      <c r="I2433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2434" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2434">
+        <v>3.3</v>
+      </c>
+      <c r="C2434">
+        <v>5</v>
+      </c>
+      <c r="D2434" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2434">
+        <v>2</v>
+      </c>
+      <c r="F2434">
+        <v>3</v>
+      </c>
+      <c r="G2434">
+        <v>1</v>
+      </c>
+      <c r="H2434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2435" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2435">
+        <v>3.3</v>
+      </c>
+      <c r="C2435">
+        <v>6</v>
+      </c>
+      <c r="E2435">
+        <v>2</v>
+      </c>
+      <c r="F2435">
+        <v>3</v>
+      </c>
+      <c r="G2435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2436" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2436">
+        <v>3.3</v>
+      </c>
+      <c r="C2436">
+        <v>7</v>
+      </c>
+      <c r="D2436" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2436">
+        <v>1</v>
+      </c>
+      <c r="F2436">
+        <v>1</v>
+      </c>
+      <c r="G2436">
+        <v>1</v>
+      </c>
+      <c r="H2436">
+        <v>6</v>
+      </c>
+      <c r="I2436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2437">
+        <v>3.3</v>
+      </c>
+      <c r="C2437">
+        <v>8</v>
+      </c>
+      <c r="D2437" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2437">
+        <v>2</v>
+      </c>
+      <c r="F2437">
+        <v>4</v>
+      </c>
+      <c r="G2437">
+        <v>1</v>
+      </c>
+      <c r="H2437">
+        <v>1</v>
+      </c>
+      <c r="I2437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2438">
+        <v>3.3</v>
+      </c>
+      <c r="C2438">
+        <v>9</v>
+      </c>
+      <c r="D2438" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2438">
+        <v>1</v>
+      </c>
+      <c r="F2438">
+        <v>1</v>
+      </c>
+      <c r="G2438">
+        <v>1</v>
+      </c>
+      <c r="H2438">
+        <v>5</v>
+      </c>
+      <c r="I2438">
+        <v>1</v>
+      </c>
+      <c r="J2438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2439">
+        <v>3.3</v>
+      </c>
+      <c r="C2439">
+        <v>10</v>
+      </c>
+      <c r="D2439" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2439">
+        <v>2</v>
+      </c>
+      <c r="F2439">
+        <v>1</v>
+      </c>
+      <c r="G2439">
+        <v>1</v>
+      </c>
+      <c r="H2439">
+        <v>3</v>
+      </c>
+      <c r="I2439">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
